--- a/Output/testexcel-unique.xlsx
+++ b/Output/testexcel-unique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="44">
   <si>
     <t>Time</t>
   </si>
@@ -128,45 +128,6 @@
   </si>
   <si>
     <t>StephB</t>
-  </si>
-  <si>
-    <t>303112001</t>
-  </si>
-  <si>
-    <t>404000100</t>
-  </si>
-  <si>
-    <t>404223002</t>
-  </si>
-  <si>
-    <t>303334003</t>
-  </si>
-  <si>
-    <t>404113101</t>
-  </si>
-  <si>
-    <t>303221202</t>
-  </si>
-  <si>
-    <t>304420003</t>
-  </si>
-  <si>
-    <t>404113001</t>
-  </si>
-  <si>
-    <t>324332103</t>
-  </si>
-  <si>
-    <t>505122002</t>
-  </si>
-  <si>
-    <t>304223302</t>
-  </si>
-  <si>
-    <t>303120402</t>
-  </si>
-  <si>
-    <t>323341324</t>
   </si>
   <si>
     <t>Grasshopper</t>
@@ -626,14 +587,14 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>303112001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E2" s="1">
         <v>2</v>
@@ -835,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -1037,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -1239,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1307,7 +1268,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1375,7 +1336,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1442,14 +1403,14 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
+      <c r="B14" s="1">
+        <v>404000100</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1651,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -1853,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
@@ -1921,7 +1882,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -1989,7 +1950,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -2056,14 +2017,14 @@
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
+      <c r="B23" s="1">
+        <v>404223002</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1">
         <v>2</v>
@@ -2265,7 +2226,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
@@ -2467,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -2669,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
@@ -2737,7 +2698,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
@@ -2805,7 +2766,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1">
         <v>0</v>
@@ -2872,14 +2833,14 @@
       <c r="A35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>41</v>
+      <c r="B35" s="1">
+        <v>303334003</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -3081,7 +3042,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E38" s="1">
         <v>2</v>
@@ -3283,7 +3244,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1">
         <v>2</v>
@@ -3485,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E44" s="1">
         <v>0</v>
@@ -3553,7 +3514,7 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E45" s="1">
         <v>0</v>
@@ -3621,7 +3582,7 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -3688,14 +3649,14 @@
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
+      <c r="B47" s="1">
+        <v>404113101</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1">
         <v>2</v>
@@ -3897,7 +3858,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -4099,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E53" s="1">
         <v>2</v>
@@ -4301,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -4369,7 +4330,7 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -4437,7 +4398,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E58" s="1">
         <v>0</v>
@@ -4504,14 +4465,14 @@
       <c r="A59" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>43</v>
+      <c r="B59" s="1">
+        <v>303221202</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E59" s="1">
         <v>2</v>
@@ -4713,7 +4674,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E62" s="1">
         <v>2</v>
@@ -4915,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E65" s="1">
         <v>2</v>
@@ -5117,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -5185,7 +5146,7 @@
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -5253,7 +5214,7 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -5320,14 +5281,14 @@
       <c r="A71" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>44</v>
+      <c r="B71" s="1">
+        <v>304420003</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E71" s="1">
         <v>2</v>
@@ -5529,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E74" s="1">
         <v>2</v>
@@ -5731,7 +5692,7 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E77" s="1">
         <v>2</v>
@@ -5933,7 +5894,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -6001,7 +5962,7 @@
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -6069,7 +6030,7 @@
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -6136,14 +6097,14 @@
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>45</v>
+      <c r="B83" s="1">
+        <v>404113001</v>
       </c>
       <c r="C83" s="1">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E83" s="1">
         <v>2</v>
@@ -6345,7 +6306,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E86" s="1">
         <v>2</v>
@@ -6547,7 +6508,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E89" s="1">
         <v>2</v>
@@ -6749,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -6817,7 +6778,7 @@
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -6885,7 +6846,7 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -6952,14 +6913,14 @@
       <c r="A95" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>46</v>
+      <c r="B95" s="1">
+        <v>324332103</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E95" s="1">
         <v>2</v>
@@ -7161,7 +7122,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E98" s="1">
         <v>2</v>
@@ -7363,7 +7324,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E101" s="1">
         <v>2</v>
@@ -7565,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -7633,7 +7594,7 @@
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -7701,7 +7662,7 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -7768,14 +7729,14 @@
       <c r="A107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>47</v>
+      <c r="B107" s="1">
+        <v>505122002</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E107" s="1">
         <v>2</v>
@@ -7977,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E110" s="1">
         <v>2</v>
@@ -8179,7 +8140,7 @@
         <v>2</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
@@ -8381,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
@@ -8449,7 +8410,7 @@
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E117" s="1">
         <v>0</v>
@@ -8517,7 +8478,7 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E118" s="1">
         <v>0</v>
@@ -8584,14 +8545,14 @@
       <c r="A119" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>48</v>
+      <c r="B119" s="1">
+        <v>304223302</v>
       </c>
       <c r="C119" s="1">
         <v>2</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E119" s="1">
         <v>2</v>
@@ -8793,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E122" s="1">
         <v>2</v>
@@ -8995,7 +8956,7 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E125" s="1">
         <v>2</v>
@@ -9197,7 +9158,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
@@ -9265,7 +9226,7 @@
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E129" s="1">
         <v>0</v>
@@ -9333,7 +9294,7 @@
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E130" s="1">
         <v>0</v>
@@ -9400,14 +9361,14 @@
       <c r="A131" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>49</v>
+      <c r="B131" s="1">
+        <v>303120402</v>
       </c>
       <c r="C131" s="1">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E131" s="1">
         <v>2</v>
@@ -9609,7 +9570,7 @@
         <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E134" s="1">
         <v>2</v>
@@ -9811,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E137" s="1">
         <v>2</v>
@@ -10013,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E140" s="1">
         <v>0</v>
@@ -10081,7 +10042,7 @@
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E141" s="1">
         <v>0</v>
@@ -10149,7 +10110,7 @@
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E142" s="1">
         <v>0</v>
@@ -10216,14 +10177,14 @@
       <c r="A143" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>50</v>
+      <c r="B143" s="1">
+        <v>323341324</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E143" s="1">
         <v>2</v>
@@ -10425,7 +10386,7 @@
         <v>2</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E146" s="1">
         <v>2</v>
@@ -10627,7 +10588,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E149" s="1">
         <v>2</v>
@@ -10829,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
@@ -10897,7 +10858,7 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
@@ -10965,7 +10926,7 @@
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
@@ -11032,14 +10993,14 @@
       <c r="A155" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>40</v>
+      <c r="B155" s="1">
+        <v>404223002</v>
       </c>
       <c r="C155" s="1">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E155" s="1">
         <v>2</v>
@@ -11241,7 +11202,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E158" s="1">
         <v>2</v>
@@ -11443,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E161" s="1">
         <v>2</v>
@@ -11645,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E164" s="1">
         <v>0</v>
@@ -11713,7 +11674,7 @@
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E165" s="1">
         <v>0</v>
@@ -11781,7 +11742,7 @@
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E166" s="1">
         <v>0</v>

--- a/Output/testexcel-unique.xlsx
+++ b/Output/testexcel-unique.xlsx
@@ -588,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>303112001</v>
+        <v>30311200232</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1">
-        <v>404000100</v>
+        <v>40400010341</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -2018,7 +2018,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <v>404223002</v>
+        <v>40422300343</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -2834,7 +2834,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1">
-        <v>303334003</v>
+        <v>30333400334</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -3650,7 +3650,7 @@
         <v>28</v>
       </c>
       <c r="B47" s="1">
-        <v>404113101</v>
+        <v>40411310242</v>
       </c>
       <c r="C47" s="1">
         <v>2</v>
@@ -4466,7 +4466,7 @@
         <v>29</v>
       </c>
       <c r="B59" s="1">
-        <v>303221202</v>
+        <v>30322120232</v>
       </c>
       <c r="C59" s="1">
         <v>3</v>
@@ -5282,7 +5282,7 @@
         <v>30</v>
       </c>
       <c r="B71" s="1">
-        <v>304420003</v>
+        <v>30442000340</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -6098,7 +6098,7 @@
         <v>31</v>
       </c>
       <c r="B83" s="1">
-        <v>404113001</v>
+        <v>40411300343</v>
       </c>
       <c r="C83" s="1">
         <v>3</v>
@@ -6914,7 +6914,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="1">
-        <v>324332103</v>
+        <v>32433210332</v>
       </c>
       <c r="C95" s="1">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>33</v>
       </c>
       <c r="B107" s="1">
-        <v>505122002</v>
+        <v>50512200352</v>
       </c>
       <c r="C107" s="1">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>34</v>
       </c>
       <c r="B119" s="1">
-        <v>304223302</v>
+        <v>30422330343</v>
       </c>
       <c r="C119" s="1">
         <v>2</v>
@@ -9362,7 +9362,7 @@
         <v>35</v>
       </c>
       <c r="B131" s="1">
-        <v>303120402</v>
+        <v>30312040334</v>
       </c>
       <c r="C131" s="1">
         <v>3</v>
@@ -10178,7 +10178,7 @@
         <v>36</v>
       </c>
       <c r="B143" s="1">
-        <v>323341324</v>
+        <v>32334132322</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -10994,7 +10994,7 @@
         <v>37</v>
       </c>
       <c r="B155" s="1">
-        <v>404223002</v>
+        <v>40422300343</v>
       </c>
       <c r="C155" s="1">
         <v>3</v>

--- a/Output/testexcel-unique.xlsx
+++ b/Output/testexcel-unique.xlsx
@@ -600,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -666,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -934,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1070,7 +1070,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>158</v>
+        <v>402</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1272,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>128</v>
+        <v>282</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="G13">
         <v>5</v>
@@ -1406,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>52.67</v>
+        <v>134</v>
       </c>
       <c r="G14">
         <v>2.33</v>
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>42.67</v>
+        <v>94</v>
       </c>
       <c r="G15">
         <v>2.33</v>
@@ -1538,7 +1538,7 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>12.33</v>
+        <v>60.67</v>
       </c>
       <c r="G16">
         <v>1.67</v>
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="F17">
-        <v>59.53</v>
+        <v>57.82</v>
       </c>
       <c r="G17">
         <v>2.31</v>
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="F18">
-        <v>43.29</v>
+        <v>46.16</v>
       </c>
       <c r="G18">
         <v>1.15</v>
@@ -1738,7 +1738,7 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>8.5</v>
+        <v>35.16</v>
       </c>
       <c r="G19">
         <v>1.15</v>
@@ -1812,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1878,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1944,7 +1944,7 @@
         <v>4</v>
       </c>
       <c r="F22">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="G22">
         <v>5</v>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2080,7 +2080,7 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -2146,7 +2146,7 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>134</v>
+        <v>580</v>
       </c>
       <c r="G26">
         <v>12</v>
@@ -2282,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="F27">
-        <v>55</v>
+        <v>448</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -2348,7 +2348,7 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>31</v>
+        <v>349</v>
       </c>
       <c r="G28">
         <v>13</v>
@@ -2416,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>44.67</v>
+        <v>193.33</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -2482,7 +2482,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>18.33</v>
+        <v>149.33</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -2548,7 +2548,7 @@
         <v>4</v>
       </c>
       <c r="F31">
-        <v>10.33</v>
+        <v>116.33</v>
       </c>
       <c r="G31">
         <v>4.33</v>
@@ -2616,7 +2616,7 @@
         <v>2</v>
       </c>
       <c r="F32">
-        <v>27.93</v>
+        <v>69.5</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -2682,7 +2682,7 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>6.11</v>
+        <v>47.61</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -2748,7 +2748,7 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>6.66</v>
+        <v>137.02</v>
       </c>
       <c r="G34">
         <v>2.08</v>
@@ -2822,7 +2822,7 @@
         <v>2</v>
       </c>
       <c r="F35">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -2888,7 +2888,7 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3024,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3090,7 +3090,7 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>50</v>
+        <v>262</v>
       </c>
       <c r="G39">
         <v>13</v>
@@ -3156,7 +3156,7 @@
         <v>4</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="G40">
         <v>4</v>
@@ -3226,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="G41">
         <v>3</v>
@@ -3292,7 +3292,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3358,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -3428,7 +3428,7 @@
         <v>2</v>
       </c>
       <c r="F44">
-        <v>113</v>
+        <v>610</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="F45">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="G45">
         <v>16</v>
@@ -3560,7 +3560,7 @@
         <v>4</v>
       </c>
       <c r="F46">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="G46">
         <v>7</v>
@@ -3628,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <v>37.67</v>
+        <v>203.33</v>
       </c>
       <c r="G47">
         <v>1.67</v>
@@ -3694,7 +3694,7 @@
         <v>3</v>
       </c>
       <c r="F48">
-        <v>26</v>
+        <v>132.67</v>
       </c>
       <c r="G48">
         <v>5.33</v>
@@ -3760,7 +3760,7 @@
         <v>4</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="G49">
         <v>2.33</v>
@@ -3828,7 +3828,7 @@
         <v>2</v>
       </c>
       <c r="F50">
-        <v>29.74</v>
+        <v>56.77</v>
       </c>
       <c r="G50">
         <v>1.15</v>
@@ -3894,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="F51">
-        <v>23.52</v>
+        <v>122.26</v>
       </c>
       <c r="G51">
         <v>6.66</v>
@@ -3960,7 +3960,7 @@
         <v>4</v>
       </c>
       <c r="F52">
-        <v>7.81</v>
+        <v>52.94</v>
       </c>
       <c r="G52">
         <v>1.53</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="F53">
-        <v>81</v>
+        <v>684</v>
       </c>
       <c r="G53">
         <v>5</v>
@@ -4100,7 +4100,7 @@
         <v>3</v>
       </c>
       <c r="F54">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -4166,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="F55">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -4236,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="F56">
-        <v>68</v>
+        <v>750</v>
       </c>
       <c r="G56">
         <v>9</v>
@@ -4302,7 +4302,7 @@
         <v>3</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -4368,7 +4368,7 @@
         <v>4</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -4438,7 +4438,7 @@
         <v>2</v>
       </c>
       <c r="F59">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -4504,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="F60">
-        <v>31</v>
+        <v>480</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -4570,7 +4570,7 @@
         <v>4</v>
       </c>
       <c r="F61">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="F62">
-        <v>173</v>
+        <v>1737</v>
       </c>
       <c r="G62">
         <v>16</v>
@@ -4706,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>62</v>
+        <v>815</v>
       </c>
       <c r="G63">
         <v>4</v>
@@ -4772,7 +4772,7 @@
         <v>4</v>
       </c>
       <c r="F64">
-        <v>41</v>
+        <v>770</v>
       </c>
       <c r="G64">
         <v>3</v>
@@ -4840,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="F65">
-        <v>57.67</v>
+        <v>579</v>
       </c>
       <c r="G65">
         <v>5.33</v>
@@ -4906,7 +4906,7 @@
         <v>3</v>
       </c>
       <c r="F66">
-        <v>20.67</v>
+        <v>271.67</v>
       </c>
       <c r="G66">
         <v>1.33</v>
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="F67">
-        <v>13.67</v>
+        <v>256.67</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="F68">
-        <v>29.87</v>
+        <v>241.29</v>
       </c>
       <c r="G68">
         <v>3.51</v>
@@ -5106,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <v>16.2</v>
+        <v>221.5</v>
       </c>
       <c r="G69">
         <v>0.58</v>
@@ -5172,7 +5172,7 @@
         <v>4</v>
       </c>
       <c r="F70">
-        <v>5.51</v>
+        <v>124.39</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="G71">
         <v>5</v>
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="F72">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="F73">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -5448,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="F74">
-        <v>111</v>
+        <v>775</v>
       </c>
       <c r="G74">
         <v>11</v>
@@ -5514,7 +5514,7 @@
         <v>3</v>
       </c>
       <c r="F75">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -5580,7 +5580,7 @@
         <v>4</v>
       </c>
       <c r="F76">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -5650,7 +5650,7 @@
         <v>2</v>
       </c>
       <c r="F77">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -5716,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="F78">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -5782,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -5852,7 +5852,7 @@
         <v>2</v>
       </c>
       <c r="F80">
-        <v>258</v>
+        <v>1439</v>
       </c>
       <c r="G80">
         <v>18</v>
@@ -5918,7 +5918,7 @@
         <v>3</v>
       </c>
       <c r="F81">
-        <v>113</v>
+        <v>492</v>
       </c>
       <c r="G81">
         <v>5</v>
@@ -5984,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="F82">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -6052,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="F83">
-        <v>86</v>
+        <v>479.67</v>
       </c>
       <c r="G83">
         <v>6</v>
@@ -6118,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="F84">
-        <v>37.67</v>
+        <v>164</v>
       </c>
       <c r="G84">
         <v>1.67</v>
@@ -6184,7 +6184,7 @@
         <v>4</v>
       </c>
       <c r="F85">
-        <v>16.67</v>
+        <v>87</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="F86">
-        <v>35.79</v>
+        <v>261.2</v>
       </c>
       <c r="G86">
         <v>4.58</v>
@@ -6318,7 +6318,7 @@
         <v>3</v>
       </c>
       <c r="F87">
-        <v>4.93</v>
+        <v>52.57</v>
       </c>
       <c r="G87">
         <v>1.15</v>
@@ -6384,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="F88">
-        <v>9.449999999999999</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="F89">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="G89">
         <v>6</v>
@@ -6524,7 +6524,7 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -6590,7 +6590,7 @@
         <v>4</v>
       </c>
       <c r="F91">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="G91">
         <v>3</v>
@@ -6660,7 +6660,7 @@
         <v>2</v>
       </c>
       <c r="F92">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -6726,7 +6726,7 @@
         <v>3</v>
       </c>
       <c r="F93">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -6792,7 +6792,7 @@
         <v>4</v>
       </c>
       <c r="F94">
-        <v>25</v>
+        <v>348</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -6862,7 +6862,7 @@
         <v>2</v>
       </c>
       <c r="F95">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -6928,7 +6928,7 @@
         <v>3</v>
       </c>
       <c r="F96">
-        <v>41</v>
+        <v>340</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -6994,7 +6994,7 @@
         <v>4</v>
       </c>
       <c r="F97">
-        <v>14</v>
+        <v>462</v>
       </c>
       <c r="G97">
         <v>3</v>
@@ -7064,7 +7064,7 @@
         <v>2</v>
       </c>
       <c r="F98">
-        <v>117</v>
+        <v>751</v>
       </c>
       <c r="G98">
         <v>12</v>
@@ -7130,7 +7130,7 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <v>140</v>
+        <v>835</v>
       </c>
       <c r="G99">
         <v>7</v>
@@ -7196,7 +7196,7 @@
         <v>4</v>
       </c>
       <c r="F100">
-        <v>93</v>
+        <v>981</v>
       </c>
       <c r="G100">
         <v>7</v>
@@ -7264,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>39</v>
+        <v>250.33</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -7330,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="F102">
-        <v>46.67</v>
+        <v>278.33</v>
       </c>
       <c r="G102">
         <v>2.33</v>
@@ -7396,7 +7396,7 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <v>31</v>
+        <v>327</v>
       </c>
       <c r="G103">
         <v>2.33</v>
@@ -7464,7 +7464,7 @@
         <v>2</v>
       </c>
       <c r="F104">
-        <v>24.43</v>
+        <v>92.52</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -7530,7 +7530,7 @@
         <v>3</v>
       </c>
       <c r="F105">
-        <v>22.05</v>
+        <v>87.65000000000001</v>
       </c>
       <c r="G105">
         <v>2.31</v>
@@ -7596,7 +7596,7 @@
         <v>4</v>
       </c>
       <c r="F106">
-        <v>20.66</v>
+        <v>146.63</v>
       </c>
       <c r="G106">
         <v>1.15</v>
@@ -7670,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="F107">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="F108">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="G108">
         <v>2</v>
@@ -7802,7 +7802,7 @@
         <v>4</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -7872,7 +7872,7 @@
         <v>2</v>
       </c>
       <c r="F110">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -7938,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="F111">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="G111">
         <v>4</v>
@@ -8004,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="F112">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="G112">
         <v>5</v>
@@ -8074,7 +8074,7 @@
         <v>2</v>
       </c>
       <c r="F113">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -8140,7 +8140,7 @@
         <v>3</v>
       </c>
       <c r="F114">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -8276,7 +8276,7 @@
         <v>2</v>
       </c>
       <c r="F116">
-        <v>80</v>
+        <v>757</v>
       </c>
       <c r="G116">
         <v>9</v>
@@ -8342,7 +8342,7 @@
         <v>3</v>
       </c>
       <c r="F117">
-        <v>64</v>
+        <v>741</v>
       </c>
       <c r="G117">
         <v>9</v>
@@ -8408,7 +8408,7 @@
         <v>4</v>
       </c>
       <c r="F118">
-        <v>29</v>
+        <v>245</v>
       </c>
       <c r="G118">
         <v>7</v>
@@ -8476,7 +8476,7 @@
         <v>2</v>
       </c>
       <c r="F119">
-        <v>26.67</v>
+        <v>252.33</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -8542,7 +8542,7 @@
         <v>3</v>
       </c>
       <c r="F120">
-        <v>21.33</v>
+        <v>247</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -8608,7 +8608,7 @@
         <v>4</v>
       </c>
       <c r="F121">
-        <v>9.67</v>
+        <v>81.67</v>
       </c>
       <c r="G121">
         <v>2.33</v>
@@ -8676,7 +8676,7 @@
         <v>2</v>
       </c>
       <c r="F122">
-        <v>6.43</v>
+        <v>105.31</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -8742,7 +8742,7 @@
         <v>3</v>
       </c>
       <c r="F123">
-        <v>5.13</v>
+        <v>69.2</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -8808,7 +8808,7 @@
         <v>4</v>
       </c>
       <c r="F124">
-        <v>12.5</v>
+        <v>107.91</v>
       </c>
       <c r="G124">
         <v>2.31</v>
@@ -8882,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="F125">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -8948,7 +8948,7 @@
         <v>3</v>
       </c>
       <c r="F126">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -9014,7 +9014,7 @@
         <v>4</v>
       </c>
       <c r="F127">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -9084,7 +9084,7 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>92</v>
+        <v>764</v>
       </c>
       <c r="G128">
         <v>7</v>
@@ -9150,7 +9150,7 @@
         <v>3</v>
       </c>
       <c r="F129">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G129">
         <v>2</v>
@@ -9216,7 +9216,7 @@
         <v>4</v>
       </c>
       <c r="F130">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="G130">
         <v>6</v>
@@ -9286,7 +9286,7 @@
         <v>2</v>
       </c>
       <c r="F131">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -9352,7 +9352,7 @@
         <v>3</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -9418,7 +9418,7 @@
         <v>4</v>
       </c>
       <c r="F133">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -9488,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="F134">
-        <v>165</v>
+        <v>1107</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -9554,7 +9554,7 @@
         <v>3</v>
       </c>
       <c r="F135">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="G135">
         <v>4</v>
@@ -9620,7 +9620,7 @@
         <v>4</v>
       </c>
       <c r="F136">
-        <v>45</v>
+        <v>531</v>
       </c>
       <c r="G136">
         <v>8</v>
@@ -9688,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="F137">
-        <v>55</v>
+        <v>369</v>
       </c>
       <c r="G137">
         <v>3.33</v>
@@ -9754,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="F138">
-        <v>11.67</v>
+        <v>87</v>
       </c>
       <c r="G138">
         <v>1.33</v>
@@ -9820,7 +9820,7 @@
         <v>4</v>
       </c>
       <c r="F139">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="G139">
         <v>2.67</v>
@@ -9888,7 +9888,7 @@
         <v>2</v>
       </c>
       <c r="F140">
-        <v>32.23</v>
+        <v>342.21</v>
       </c>
       <c r="G140">
         <v>3.21</v>
@@ -9954,7 +9954,7 @@
         <v>3</v>
       </c>
       <c r="F141">
-        <v>7.51</v>
+        <v>39.74</v>
       </c>
       <c r="G141">
         <v>0.58</v>
@@ -10020,7 +10020,7 @@
         <v>4</v>
       </c>
       <c r="F142">
-        <v>7.21</v>
+        <v>100.26</v>
       </c>
       <c r="G142">
         <v>2.89</v>
@@ -10094,7 +10094,7 @@
         <v>2</v>
       </c>
       <c r="F143">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="G143">
         <v>19</v>
@@ -10160,7 +10160,7 @@
         <v>3</v>
       </c>
       <c r="F144">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -10226,7 +10226,7 @@
         <v>4</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>2</v>
       </c>
       <c r="F146">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -10362,7 +10362,7 @@
         <v>3</v>
       </c>
       <c r="F147">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -10428,7 +10428,7 @@
         <v>4</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -10498,7 +10498,7 @@
         <v>2</v>
       </c>
       <c r="F149">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="G149">
         <v>6</v>
@@ -10564,7 +10564,7 @@
         <v>3</v>
       </c>
       <c r="F150">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -10630,7 +10630,7 @@
         <v>4</v>
       </c>
       <c r="F151">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -10700,7 +10700,7 @@
         <v>2</v>
       </c>
       <c r="F152">
-        <v>157</v>
+        <v>688</v>
       </c>
       <c r="G152">
         <v>26</v>
@@ -10766,7 +10766,7 @@
         <v>3</v>
       </c>
       <c r="F153">
-        <v>92</v>
+        <v>447</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -10832,7 +10832,7 @@
         <v>4</v>
       </c>
       <c r="F154">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="G154">
         <v>3</v>
@@ -10900,7 +10900,7 @@
         <v>2</v>
       </c>
       <c r="F155">
-        <v>52.33</v>
+        <v>229.33</v>
       </c>
       <c r="G155">
         <v>8.67</v>
@@ -10966,7 +10966,7 @@
         <v>3</v>
       </c>
       <c r="F156">
-        <v>30.67</v>
+        <v>149</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -11032,7 +11032,7 @@
         <v>4</v>
       </c>
       <c r="F157">
-        <v>4.33</v>
+        <v>41</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -11100,7 +11100,7 @@
         <v>2</v>
       </c>
       <c r="F158">
-        <v>39.31</v>
+        <v>102.62</v>
       </c>
       <c r="G158">
         <v>9.289999999999999</v>
@@ -11166,7 +11166,7 @@
         <v>3</v>
       </c>
       <c r="F159">
-        <v>21.08</v>
+        <v>42.3</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>4</v>
       </c>
       <c r="F160">
-        <v>2.31</v>
+        <v>23.64</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>2</v>
       </c>
       <c r="F161">
-        <v>174</v>
+        <v>612</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -11372,7 +11372,7 @@
         <v>3</v>
       </c>
       <c r="F162">
-        <v>76</v>
+        <v>388</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -11438,7 +11438,7 @@
         <v>4</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -11508,7 +11508,7 @@
         <v>2</v>
       </c>
       <c r="F164">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="G164">
         <v>8</v>
@@ -11574,7 +11574,7 @@
         <v>3</v>
       </c>
       <c r="F165">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="G165">
         <v>8</v>
@@ -11640,7 +11640,7 @@
         <v>4</v>
       </c>
       <c r="F166">
-        <v>22</v>
+        <v>302</v>
       </c>
       <c r="G166">
         <v>3</v>
@@ -11710,7 +11710,7 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>49</v>
+        <v>273</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -11776,7 +11776,7 @@
         <v>3</v>
       </c>
       <c r="F168">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -11842,7 +11842,7 @@
         <v>4</v>
       </c>
       <c r="F169">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -11912,7 +11912,7 @@
         <v>2</v>
       </c>
       <c r="F170">
-        <v>270</v>
+        <v>1145</v>
       </c>
       <c r="G170">
         <v>11</v>
@@ -11978,7 +11978,7 @@
         <v>3</v>
       </c>
       <c r="F171">
-        <v>125</v>
+        <v>766</v>
       </c>
       <c r="G171">
         <v>11</v>
@@ -12044,7 +12044,7 @@
         <v>4</v>
       </c>
       <c r="F172">
-        <v>39</v>
+        <v>437</v>
       </c>
       <c r="G172">
         <v>5</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="F173">
-        <v>90</v>
+        <v>381.67</v>
       </c>
       <c r="G173">
         <v>3.67</v>
@@ -12178,7 +12178,7 @@
         <v>3</v>
       </c>
       <c r="F174">
-        <v>41.67</v>
+        <v>255.33</v>
       </c>
       <c r="G174">
         <v>3.67</v>
@@ -12244,7 +12244,7 @@
         <v>4</v>
       </c>
       <c r="F175">
-        <v>13</v>
+        <v>145.67</v>
       </c>
       <c r="G175">
         <v>1.67</v>
@@ -12312,7 +12312,7 @@
         <v>2</v>
       </c>
       <c r="F176">
-        <v>72.75</v>
+        <v>199.58</v>
       </c>
       <c r="G176">
         <v>3.79</v>
@@ -12378,7 +12378,7 @@
         <v>3</v>
       </c>
       <c r="F177">
-        <v>29.84</v>
+        <v>115.33</v>
       </c>
       <c r="G177">
         <v>3.79</v>
@@ -12444,7 +12444,7 @@
         <v>4</v>
       </c>
       <c r="F178">
-        <v>10.82</v>
+        <v>151.28</v>
       </c>
       <c r="G178">
         <v>1.15</v>
@@ -12518,7 +12518,7 @@
         <v>2</v>
       </c>
       <c r="F179">
-        <v>90</v>
+        <v>269</v>
       </c>
       <c r="G179">
         <v>8</v>
@@ -12584,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="F180">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="G180">
         <v>50</v>
@@ -12650,7 +12650,7 @@
         <v>4</v>
       </c>
       <c r="F181">
-        <v>120</v>
+        <v>298</v>
       </c>
       <c r="G181">
         <v>15</v>
@@ -12720,7 +12720,7 @@
         <v>2</v>
       </c>
       <c r="F182">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="G182">
         <v>4</v>
@@ -12786,7 +12786,7 @@
         <v>3</v>
       </c>
       <c r="F183">
-        <v>63</v>
+        <v>403</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -12852,7 +12852,7 @@
         <v>4</v>
       </c>
       <c r="F184">
-        <v>54</v>
+        <v>794</v>
       </c>
       <c r="G184">
         <v>5</v>
@@ -12922,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="F185">
-        <v>15</v>
+        <v>251</v>
       </c>
       <c r="G185">
         <v>2</v>
@@ -12988,7 +12988,7 @@
         <v>3</v>
       </c>
       <c r="F186">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="G186">
         <v>3</v>
@@ -13054,7 +13054,7 @@
         <v>4</v>
       </c>
       <c r="F187">
-        <v>23</v>
+        <v>245</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="F188">
-        <v>152</v>
+        <v>805</v>
       </c>
       <c r="G188">
         <v>14</v>
@@ -13190,7 +13190,7 @@
         <v>3</v>
       </c>
       <c r="F189">
-        <v>161</v>
+        <v>791</v>
       </c>
       <c r="G189">
         <v>56</v>
@@ -13256,7 +13256,7 @@
         <v>4</v>
       </c>
       <c r="F190">
-        <v>197</v>
+        <v>1337</v>
       </c>
       <c r="G190">
         <v>22</v>
@@ -13324,7 +13324,7 @@
         <v>2</v>
       </c>
       <c r="F191">
-        <v>50.67</v>
+        <v>268.33</v>
       </c>
       <c r="G191">
         <v>4.67</v>
@@ -13390,7 +13390,7 @@
         <v>3</v>
       </c>
       <c r="F192">
-        <v>53.67</v>
+        <v>263.67</v>
       </c>
       <c r="G192">
         <v>18.67</v>
@@ -13456,7 +13456,7 @@
         <v>4</v>
       </c>
       <c r="F193">
-        <v>65.67</v>
+        <v>445.67</v>
       </c>
       <c r="G193">
         <v>7.33</v>
@@ -13524,7 +13524,7 @@
         <v>2</v>
       </c>
       <c r="F194">
-        <v>37.63</v>
+        <v>17.01</v>
       </c>
       <c r="G194">
         <v>3.06</v>
@@ -13590,7 +13590,7 @@
         <v>3</v>
       </c>
       <c r="F195">
-        <v>29.14</v>
+        <v>122</v>
       </c>
       <c r="G195">
         <v>27.14</v>
@@ -13656,7 +13656,7 @@
         <v>4</v>
       </c>
       <c r="F196">
-        <v>49.54</v>
+        <v>302.83</v>
       </c>
       <c r="G196">
         <v>6.81</v>
@@ -13730,7 +13730,7 @@
         <v>2</v>
       </c>
       <c r="F197">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -13796,7 +13796,7 @@
         <v>3</v>
       </c>
       <c r="F198">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G198">
         <v>5</v>
@@ -13862,7 +13862,7 @@
         <v>4</v>
       </c>
       <c r="F199">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="G199">
         <v>3</v>
@@ -13932,7 +13932,7 @@
         <v>2</v>
       </c>
       <c r="F200">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -13998,7 +13998,7 @@
         <v>3</v>
       </c>
       <c r="F201">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="G201">
         <v>3</v>
@@ -14064,7 +14064,7 @@
         <v>4</v>
       </c>
       <c r="F202">
-        <v>42</v>
+        <v>252</v>
       </c>
       <c r="G202">
         <v>6</v>
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="F203">
-        <v>51</v>
+        <v>678</v>
       </c>
       <c r="G203">
         <v>3</v>
@@ -14200,7 +14200,7 @@
         <v>3</v>
       </c>
       <c r="F204">
-        <v>44</v>
+        <v>615</v>
       </c>
       <c r="G204">
         <v>5</v>
@@ -14266,7 +14266,7 @@
         <v>4</v>
       </c>
       <c r="F205">
-        <v>29</v>
+        <v>369</v>
       </c>
       <c r="G205">
         <v>5</v>
@@ -14336,7 +14336,7 @@
         <v>2</v>
       </c>
       <c r="F206">
-        <v>189</v>
+        <v>1105</v>
       </c>
       <c r="G206">
         <v>11</v>
@@ -14402,7 +14402,7 @@
         <v>3</v>
       </c>
       <c r="F207">
-        <v>153</v>
+        <v>839</v>
       </c>
       <c r="G207">
         <v>13</v>
@@ -14468,7 +14468,7 @@
         <v>4</v>
       </c>
       <c r="F208">
-        <v>119</v>
+        <v>772</v>
       </c>
       <c r="G208">
         <v>14</v>
@@ -14536,7 +14536,7 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <v>63</v>
+        <v>368.33</v>
       </c>
       <c r="G209">
         <v>3.67</v>
@@ -14602,7 +14602,7 @@
         <v>3</v>
       </c>
       <c r="F210">
-        <v>51</v>
+        <v>279.67</v>
       </c>
       <c r="G210">
         <v>4.33</v>
@@ -14668,7 +14668,7 @@
         <v>4</v>
       </c>
       <c r="F211">
-        <v>39.67</v>
+        <v>257.33</v>
       </c>
       <c r="G211">
         <v>4.67</v>
@@ -14736,7 +14736,7 @@
         <v>2</v>
       </c>
       <c r="F212">
-        <v>28.93</v>
+        <v>269.21</v>
       </c>
       <c r="G212">
         <v>0.58</v>
@@ -14802,7 +14802,7 @@
         <v>3</v>
       </c>
       <c r="F213">
-        <v>28.16</v>
+        <v>290.66</v>
       </c>
       <c r="G213">
         <v>1.15</v>
@@ -14868,7 +14868,7 @@
         <v>4</v>
       </c>
       <c r="F214">
-        <v>9.710000000000001</v>
+        <v>109.1</v>
       </c>
       <c r="G214">
         <v>1.53</v>
@@ -14942,7 +14942,7 @@
         <v>2</v>
       </c>
       <c r="F215">
-        <v>156</v>
+        <v>603</v>
       </c>
       <c r="G215">
         <v>11</v>
@@ -15008,7 +15008,7 @@
         <v>3</v>
       </c>
       <c r="F216">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="G216">
         <v>1</v>
@@ -15074,7 +15074,7 @@
         <v>4</v>
       </c>
       <c r="F217">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="G217">
         <v>1</v>
@@ -15144,7 +15144,7 @@
         <v>2</v>
       </c>
       <c r="F218">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="G218">
         <v>9</v>
@@ -15210,7 +15210,7 @@
         <v>3</v>
       </c>
       <c r="F219">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="G219">
         <v>4</v>
@@ -15276,7 +15276,7 @@
         <v>4</v>
       </c>
       <c r="F220">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="G220">
         <v>2</v>
@@ -15346,7 +15346,7 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -15412,7 +15412,7 @@
         <v>3</v>
       </c>
       <c r="F222">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="G222">
         <v>1</v>
@@ -15478,7 +15478,7 @@
         <v>4</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -15548,7 +15548,7 @@
         <v>2</v>
       </c>
       <c r="F224">
-        <v>235</v>
+        <v>1195</v>
       </c>
       <c r="G224">
         <v>21</v>
@@ -15614,7 +15614,7 @@
         <v>3</v>
       </c>
       <c r="F225">
-        <v>63</v>
+        <v>335</v>
       </c>
       <c r="G225">
         <v>6</v>
@@ -15680,7 +15680,7 @@
         <v>4</v>
       </c>
       <c r="F226">
-        <v>35</v>
+        <v>302</v>
       </c>
       <c r="G226">
         <v>4</v>
@@ -15748,7 +15748,7 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <v>78.33</v>
+        <v>398.33</v>
       </c>
       <c r="G227">
         <v>7</v>
@@ -15814,7 +15814,7 @@
         <v>3</v>
       </c>
       <c r="F228">
-        <v>21</v>
+        <v>111.67</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -15880,7 +15880,7 @@
         <v>4</v>
       </c>
       <c r="F229">
-        <v>11.67</v>
+        <v>100.67</v>
       </c>
       <c r="G229">
         <v>1.33</v>
@@ -15948,7 +15948,7 @@
         <v>2</v>
       </c>
       <c r="F230">
-        <v>69.26000000000001</v>
+        <v>212.38</v>
       </c>
       <c r="G230">
         <v>5.29</v>
@@ -16014,7 +16014,7 @@
         <v>3</v>
       </c>
       <c r="F231">
-        <v>18.73</v>
+        <v>28.02</v>
       </c>
       <c r="G231">
         <v>1.73</v>
@@ -16080,7 +16080,7 @@
         <v>4</v>
       </c>
       <c r="F232">
-        <v>13.43</v>
+        <v>82.72</v>
       </c>
       <c r="G232">
         <v>0.58</v>
@@ -16154,7 +16154,7 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G233">
         <v>5</v>
@@ -16220,7 +16220,7 @@
         <v>3</v>
       </c>
       <c r="F234">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="G234">
         <v>1</v>
@@ -16286,7 +16286,7 @@
         <v>4</v>
       </c>
       <c r="F235">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="G235">
         <v>1</v>
@@ -16356,7 +16356,7 @@
         <v>2</v>
       </c>
       <c r="F236">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="G236">
         <v>3</v>
@@ -16422,7 +16422,7 @@
         <v>3</v>
       </c>
       <c r="F237">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G237">
         <v>1</v>
@@ -16488,7 +16488,7 @@
         <v>4</v>
       </c>
       <c r="F238">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G238">
         <v>1</v>
@@ -16558,7 +16558,7 @@
         <v>2</v>
       </c>
       <c r="F239">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -16624,7 +16624,7 @@
         <v>3</v>
       </c>
       <c r="F240">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="G240">
         <v>2</v>
@@ -16690,7 +16690,7 @@
         <v>4</v>
       </c>
       <c r="F241">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -16760,7 +16760,7 @@
         <v>2</v>
       </c>
       <c r="F242">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="G242">
         <v>9</v>
@@ -16826,7 +16826,7 @@
         <v>3</v>
       </c>
       <c r="F243">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="G243">
         <v>4</v>
@@ -16892,7 +16892,7 @@
         <v>4</v>
       </c>
       <c r="F244">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="G244">
         <v>3</v>
@@ -16960,7 +16960,7 @@
         <v>2</v>
       </c>
       <c r="F245">
-        <v>25.33</v>
+        <v>99.33</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -17026,7 +17026,7 @@
         <v>3</v>
       </c>
       <c r="F246">
-        <v>24.67</v>
+        <v>76.67</v>
       </c>
       <c r="G246">
         <v>1.33</v>
@@ -17092,7 +17092,7 @@
         <v>4</v>
       </c>
       <c r="F247">
-        <v>10.67</v>
+        <v>41</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -17160,7 +17160,7 @@
         <v>2</v>
       </c>
       <c r="F248">
-        <v>12.06</v>
+        <v>46.61</v>
       </c>
       <c r="G248">
         <v>2</v>
@@ -17226,7 +17226,7 @@
         <v>3</v>
       </c>
       <c r="F249">
-        <v>9.869999999999999</v>
+        <v>14.84</v>
       </c>
       <c r="G249">
         <v>0.58</v>
@@ -17292,7 +17292,7 @@
         <v>4</v>
       </c>
       <c r="F250">
-        <v>4.16</v>
+        <v>21.7</v>
       </c>
       <c r="G250">
         <v>0</v>
